--- a/Sources/Data.xlsx
+++ b/Sources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Main/DEV/Sources/GitHub/Data_Wrangling/Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{296B1FE0-FA82-F94F-AAAF-B38C719D3E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C48470-2CF2-9343-A1CC-7BD872C480CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{F2E2C718-5AB1-4D97-B89F-4856C77CCB6B}"/>
   </bookViews>
@@ -18,8 +18,7 @@
     <sheet name="Value. of Plastic card usage" sheetId="20" r:id="rId3"/>
     <sheet name="Payment Cards on ATM &amp; POS " sheetId="21" r:id="rId4"/>
     <sheet name="Mobile,internet banking" sheetId="22" r:id="rId5"/>
-    <sheet name="e-Money" sheetId="23" r:id="rId6"/>
-    <sheet name="promptpay" sheetId="24" r:id="rId7"/>
+    <sheet name="Promptpay" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="137">
   <si>
     <t>Bank of Thailand</t>
   </si>
@@ -83,9 +82,6 @@
     <t>AUG 2020 r</t>
   </si>
   <si>
-    <t>SEP 2020 r</t>
-  </si>
-  <si>
     <t xml:space="preserve">OCT 2020 </t>
   </si>
   <si>
@@ -95,21 +91,6 @@
     <t xml:space="preserve">DEC 2020 </t>
   </si>
   <si>
-    <t>FEB 2021 r</t>
-  </si>
-  <si>
-    <t>MAR 2021 r</t>
-  </si>
-  <si>
-    <t>APR 2021 r</t>
-  </si>
-  <si>
-    <t>MAY 2021 r</t>
-  </si>
-  <si>
-    <t>JUN 2021 r</t>
-  </si>
-  <si>
     <t xml:space="preserve">JUL 2021 </t>
   </si>
   <si>
@@ -197,9 +178,6 @@
     <t>(Unit: Billions of Baht)</t>
   </si>
   <si>
-    <t>OCT 2020 r</t>
-  </si>
-  <si>
     <t xml:space="preserve">JAN 2021 </t>
   </si>
   <si>
@@ -383,63 +361,6 @@
     <t>Mobile,internet banking</t>
   </si>
   <si>
-    <t>AUG 2021 r</t>
-  </si>
-  <si>
-    <t>OCT 2021 r</t>
-  </si>
-  <si>
-    <t>1/ Data collected from electronic payment service providers, including banks, SFIs and non-banks, under Payment Systems Act B.E. 2560 (2017)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>PS_PT_015 : Use of e-Money 1/</t>
-  </si>
-  <si>
-    <t>NOV 2020 r</t>
-  </si>
-  <si>
-    <t>DEC 2020 r</t>
-  </si>
-  <si>
-    <t>JUL 2021 r</t>
-  </si>
-  <si>
-    <t>NOV 2021 r</t>
-  </si>
-  <si>
-    <t>DEC 2021 r</t>
-  </si>
-  <si>
-    <t>JAN 2022 r</t>
-  </si>
-  <si>
-    <t>APR 2022 r</t>
-  </si>
-  <si>
-    <t>No. of Cards/Account (in millions) 2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Non-bank</t>
-  </si>
-  <si>
-    <t>Topup Value (Millions of Baht)</t>
-  </si>
-  <si>
-    <t>Spending Value (Millions of Baht)</t>
-  </si>
-  <si>
-    <t>2/ Data including e-Money that is used in place of cash to pay for goods and services and excluding pre-paid cards for mobile phones</t>
-  </si>
-  <si>
-    <t>e-Money</t>
-  </si>
-  <si>
     <t>Volume of transactions (Thousand Transactions)</t>
   </si>
   <si>
@@ -455,9 +376,6 @@
     <t>1/ Transactions by using easy-to-remember IDs such as mobile phone numbers, national identity numbers, corporate tax numbers, or e-Wallet numbers as well as traditional banking account numbers.</t>
   </si>
   <si>
-    <t>promptpay</t>
-  </si>
-  <si>
     <t xml:space="preserve">JUN 2022 </t>
   </si>
   <si>
@@ -521,24 +439,6 @@
     <t>Retrieved date :</t>
   </si>
   <si>
-    <t>JAN 2023 r</t>
-  </si>
-  <si>
-    <t>FEB 2023 r</t>
-  </si>
-  <si>
-    <t>MAR 2023 r</t>
-  </si>
-  <si>
-    <t>APR 2023 r</t>
-  </si>
-  <si>
-    <t>MAY 2023 r</t>
-  </si>
-  <si>
-    <t>JUN 2023 r</t>
-  </si>
-  <si>
     <t>Jan 2020 - Dec 2023</t>
   </si>
   <si>
@@ -549,6 +449,9 @@
   </si>
   <si>
     <t>Report</t>
+  </si>
+  <si>
+    <t>Promptpay</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F3281-199D-4D67-BC16-BE1497032156}">
-  <dimension ref="B3:E9"/>
+  <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,16 +985,16 @@
   <sheetData>
     <row r="3" spans="2:5" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1099,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1113,13 +1016,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1127,13 +1030,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1141,13 +1044,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1155,27 +1058,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1184,8 +1073,7 @@
     <hyperlink ref="C4" location="'Vol. of Plastic card usage'!A1" display="Vol. of Plastic card usage" xr:uid="{96478E3F-DB82-4B7E-AA09-5DAE657373FA}"/>
     <hyperlink ref="C6" location="'Payment Cards on ATM &amp; POS '!A1" display="Payment Cards on ATM &amp; POS " xr:uid="{A8FC58F5-5A39-46AF-9A10-A4A1441FED7A}"/>
     <hyperlink ref="C7" location="'Mobile,internet banking'!A1" display="Mobile,internet banking" xr:uid="{E6141E5E-9D4C-43DD-9D9D-B6C3210141DF}"/>
-    <hyperlink ref="C9" location="promptpay!A1" display="promptpay" xr:uid="{FCCB12CC-198F-40F2-9651-24488FFAAF28}"/>
-    <hyperlink ref="C8" location="'e-Money'!A1" display="e-Money" xr:uid="{8BD47AC4-DCEE-9046-A666-408EE009747F}"/>
+    <hyperlink ref="C8" location="promptpay!A1" display="promptpay" xr:uid="{FCCB12CC-198F-40F2-9651-24488FFAAF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1271,7 +1159,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1379,7 +1267,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1493,156 +1381,156 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AG6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AU6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8">
         <v>10824</v>
@@ -1791,10 +1679,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8">
         <v>10331</v>
@@ -1943,10 +1831,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9">
         <v>493</v>
@@ -2095,10 +1983,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8">
         <v>123868</v>
@@ -2247,10 +2135,10 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8">
         <v>90206</v>
@@ -2399,10 +2287,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C12" s="8">
         <v>15817</v>
@@ -2551,10 +2439,10 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" s="8">
         <v>17845</v>
@@ -2703,10 +2591,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8">
         <v>95882</v>
@@ -2855,10 +2743,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8">
         <v>57771</v>
@@ -3007,10 +2895,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8">
         <v>38111</v>
@@ -3159,10 +3047,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="13">
         <v>230574</v>
@@ -3363,7 +3251,7 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -3471,7 +3359,7 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -3525,7 +3413,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
@@ -3579,7 +3467,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
@@ -3633,7 +3521,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -3687,7 +3575,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
@@ -3741,7 +3629,7 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -3795,7 +3683,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -3901,7 +3789,7 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C30" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +3886,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4052,7 +3940,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4106,7 +3994,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4160,7 +4048,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4220,156 +4108,156 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AU6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C7" s="9">
         <v>51</v>
@@ -4518,10 +4406,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" s="9">
         <v>44</v>
@@ -4670,10 +4558,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9">
         <v>7</v>
@@ -4822,10 +4710,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9">
         <v>502</v>
@@ -4974,10 +4862,10 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
         <v>348</v>
@@ -5126,10 +5014,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C12" s="9">
         <v>18</v>
@@ -5278,10 +5166,10 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9">
         <v>136</v>
@@ -5430,10 +5318,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C14" s="9">
         <v>275</v>
@@ -5582,10 +5470,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9">
         <v>176</v>
@@ -5734,10 +5622,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9">
         <v>99</v>
@@ -5886,10 +5774,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="16">
         <v>828</v>
@@ -6090,7 +5978,7 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -6198,7 +6086,7 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
@@ -6252,7 +6140,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
@@ -6306,7 +6194,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
@@ -6360,7 +6248,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -6414,7 +6302,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
@@ -6468,7 +6356,7 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -6522,7 +6410,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -6628,7 +6516,7 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C30" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6726,7 +6614,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6780,7 +6668,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6834,7 +6722,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6888,7 +6776,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6948,156 +6836,156 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AG6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AU6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8">
         <v>6984</v>
@@ -7246,10 +7134,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8">
         <v>6661</v>
@@ -7398,10 +7286,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9">
         <v>323</v>
@@ -7550,10 +7438,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C10" s="8">
         <v>10631</v>
@@ -7702,10 +7590,10 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8">
         <v>4513</v>
@@ -7854,10 +7742,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13">
         <v>6118</v>
@@ -8058,7 +7946,7 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -8166,7 +8054,7 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -8220,7 +8108,7 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
@@ -8274,7 +8162,7 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
@@ -8328,7 +8216,7 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
@@ -8382,7 +8270,7 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
@@ -8488,7 +8376,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C23" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8583,7 +8471,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8637,7 +8525,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8745,7 +8633,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8805,124 +8693,124 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AQ6" s="5" t="s">
         <v>12</v>
@@ -8951,10 +8839,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>4</v>
@@ -9103,10 +8991,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8">
         <v>28816836</v>
@@ -9255,10 +9143,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C9" s="8">
         <v>55325</v>
@@ -9407,10 +9295,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C10" s="8">
         <v>3015</v>
@@ -9559,10 +9447,10 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>4</v>
@@ -9711,10 +9599,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C12" s="8">
         <v>107240928</v>
@@ -9863,10 +9751,10 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C13" s="8">
         <v>2851391</v>
@@ -10015,10 +9903,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C14" s="8">
         <v>2782327</v>
@@ -10167,10 +10055,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C15" s="8">
         <v>69064</v>
@@ -10319,10 +10207,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8">
         <v>6321</v>
@@ -10471,10 +10359,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8">
         <v>6161</v>
@@ -10623,10 +10511,10 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C18" s="16">
         <v>160</v>
@@ -10827,7 +10715,7 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
@@ -10935,7 +10823,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
@@ -10989,7 +10877,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
@@ -11043,7 +10931,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -11097,7 +10985,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -11113,28 +11001,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343931E7-5788-2240-A0CF-1BC105C00CC5}">
-  <dimension ref="A1:AX27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611CF7F-2BE6-BE4B-8331-CCA59064E309}">
+  <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="3" customWidth="1"/>
-    <col min="5" max="11" width="9.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="3" customWidth="1"/>
-    <col min="13" max="35" width="9.1640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9.33203125" style="3" customWidth="1"/>
-    <col min="37" max="47" width="9.1640625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="9.33203125" style="3" customWidth="1"/>
-    <col min="49" max="50" width="9.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="25" width="9.83203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="9.1640625" style="3" customWidth="1"/>
+    <col min="27" max="29" width="9.83203125" style="3" customWidth="1"/>
+    <col min="30" max="50" width="9.1640625" style="3" customWidth="1"/>
     <col min="51" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -11194,7 +11078,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11248,7 +11132,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11416,2763 +11300,156 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="17">
-        <v>7.88</v>
-      </c>
-      <c r="D8" s="17">
-        <v>22.97</v>
-      </c>
-      <c r="E8" s="17">
-        <v>22.99</v>
-      </c>
-      <c r="F8" s="17">
-        <v>22.99</v>
-      </c>
-      <c r="G8" s="17">
-        <v>22.75</v>
-      </c>
-      <c r="H8" s="17">
-        <v>22.59</v>
-      </c>
-      <c r="I8" s="17">
-        <v>22.4</v>
-      </c>
-      <c r="J8" s="17">
-        <v>22.93</v>
-      </c>
-      <c r="K8" s="17">
-        <v>22.69</v>
-      </c>
-      <c r="L8" s="17">
-        <v>22.8</v>
-      </c>
-      <c r="M8" s="17">
-        <v>22.59</v>
-      </c>
-      <c r="N8" s="17">
-        <v>22.38</v>
-      </c>
-      <c r="O8" s="17">
-        <v>22.15</v>
-      </c>
-      <c r="P8" s="17">
-        <v>21.9</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>21.66</v>
-      </c>
-      <c r="R8" s="17">
-        <v>21.54</v>
-      </c>
-      <c r="S8" s="17">
-        <v>21.43</v>
-      </c>
-      <c r="T8" s="17">
-        <v>22.19</v>
-      </c>
-      <c r="U8" s="17">
-        <v>22.34</v>
-      </c>
-      <c r="V8" s="17">
-        <v>22.67</v>
-      </c>
-      <c r="W8" s="17">
-        <v>22.59</v>
-      </c>
-      <c r="X8" s="17">
-        <v>22.5</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>22.35</v>
-      </c>
-      <c r="Z8" s="17">
-        <v>22.02</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>22.01</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>21.86</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>21.44</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>21.3</v>
-      </c>
-      <c r="AE8" s="17">
-        <v>21.22</v>
-      </c>
-      <c r="AF8" s="17">
-        <v>20.75</v>
-      </c>
-      <c r="AG8" s="17">
-        <v>21.19</v>
-      </c>
-      <c r="AH8" s="17">
-        <v>20.46</v>
-      </c>
-      <c r="AI8" s="17">
-        <v>20.89</v>
-      </c>
-      <c r="AJ8" s="17">
-        <v>20.83</v>
-      </c>
-      <c r="AK8" s="17">
-        <v>20.72</v>
-      </c>
-      <c r="AL8" s="17">
-        <v>20.09</v>
-      </c>
-      <c r="AM8" s="17">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="AN8" s="17">
-        <v>19.96</v>
-      </c>
-      <c r="AO8" s="17">
-        <v>19.93</v>
-      </c>
-      <c r="AP8" s="17">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="AQ8" s="17">
-        <v>19.91</v>
-      </c>
-      <c r="AR8" s="17">
-        <v>19.91</v>
-      </c>
-      <c r="AS8" s="17">
-        <v>19.86</v>
-      </c>
-      <c r="AT8" s="17">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="AU8" s="17">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="AV8" s="17">
-        <v>19.75</v>
-      </c>
-      <c r="AW8" s="17">
-        <v>19.61</v>
-      </c>
-      <c r="AX8" s="17">
-        <v>19.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="17">
-        <v>106.99</v>
-      </c>
-      <c r="D9" s="17">
-        <v>106.89</v>
-      </c>
-      <c r="E9" s="17">
-        <v>105.75</v>
-      </c>
-      <c r="F9" s="17">
-        <v>105.75</v>
-      </c>
-      <c r="G9" s="17">
-        <v>105.11</v>
-      </c>
-      <c r="H9" s="17">
-        <v>104.42</v>
-      </c>
-      <c r="I9" s="17">
-        <v>108.21</v>
-      </c>
-      <c r="J9" s="17">
-        <v>107.86</v>
-      </c>
-      <c r="K9" s="17">
-        <v>106.95</v>
-      </c>
-      <c r="L9" s="17">
-        <v>106.02</v>
-      </c>
-      <c r="M9" s="17">
-        <v>104.7</v>
-      </c>
-      <c r="N9" s="17">
-        <v>103.92</v>
-      </c>
-      <c r="O9" s="17">
-        <v>103.02</v>
-      </c>
-      <c r="P9" s="17">
-        <v>101.92</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>101.23</v>
-      </c>
-      <c r="R9" s="17">
-        <v>101.73</v>
-      </c>
-      <c r="S9" s="17">
-        <v>101.19</v>
-      </c>
-      <c r="T9" s="17">
-        <v>100.11</v>
-      </c>
-      <c r="U9" s="17">
-        <v>99.85</v>
-      </c>
-      <c r="V9" s="17">
-        <v>98.11</v>
-      </c>
-      <c r="W9" s="17">
-        <v>98.78</v>
-      </c>
-      <c r="X9" s="17">
-        <v>97.9</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>99.68</v>
-      </c>
-      <c r="Z9" s="17">
-        <v>99.37</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>98.34</v>
-      </c>
-      <c r="AB9" s="17">
-        <v>97.54</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>98.65</v>
-      </c>
-      <c r="AD9" s="17">
-        <v>96.52</v>
-      </c>
-      <c r="AE9" s="17">
-        <v>94.27</v>
-      </c>
-      <c r="AF9" s="17">
-        <v>91.28</v>
-      </c>
-      <c r="AG9" s="17">
-        <v>88.73</v>
-      </c>
-      <c r="AH9" s="17">
-        <v>86.33</v>
-      </c>
-      <c r="AI9" s="17">
-        <v>84.4</v>
-      </c>
-      <c r="AJ9" s="17">
-        <v>81.42</v>
-      </c>
-      <c r="AK9" s="17">
-        <v>79.739999999999995</v>
-      </c>
-      <c r="AL9" s="17">
-        <v>78.819999999999993</v>
-      </c>
-      <c r="AM9" s="17">
-        <v>77.41</v>
-      </c>
-      <c r="AN9" s="17">
-        <v>75.83</v>
-      </c>
-      <c r="AO9" s="17">
-        <v>74.52</v>
-      </c>
-      <c r="AP9" s="17">
-        <v>73.650000000000006</v>
-      </c>
-      <c r="AQ9" s="17">
-        <v>72.63</v>
-      </c>
-      <c r="AR9" s="17">
-        <v>72.069999999999993</v>
-      </c>
-      <c r="AS9" s="17">
-        <v>71.040000000000006</v>
-      </c>
-      <c r="AT9" s="17">
-        <v>69.92</v>
-      </c>
-      <c r="AU9" s="17">
-        <v>68.37</v>
-      </c>
-      <c r="AV9" s="17">
-        <v>66.92</v>
-      </c>
-      <c r="AW9" s="17">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="AX9" s="17">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="17">
-        <v>114.87</v>
-      </c>
-      <c r="D10" s="17">
-        <v>129.86000000000001</v>
-      </c>
-      <c r="E10" s="17">
-        <v>128.74</v>
-      </c>
-      <c r="F10" s="17">
-        <v>128.74</v>
-      </c>
-      <c r="G10" s="17">
-        <v>127.86</v>
-      </c>
-      <c r="H10" s="17">
-        <v>127.01</v>
-      </c>
-      <c r="I10" s="17">
-        <v>130.61000000000001</v>
-      </c>
-      <c r="J10" s="17">
-        <v>130.79</v>
-      </c>
-      <c r="K10" s="17">
-        <v>129.63999999999999</v>
-      </c>
-      <c r="L10" s="17">
-        <v>128.82</v>
-      </c>
-      <c r="M10" s="17">
-        <v>127.29</v>
-      </c>
-      <c r="N10" s="17">
-        <v>126.3</v>
-      </c>
-      <c r="O10" s="17">
-        <v>125.17</v>
-      </c>
-      <c r="P10" s="17">
-        <v>123.82</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>122.89</v>
-      </c>
-      <c r="R10" s="17">
-        <v>123.27</v>
-      </c>
-      <c r="S10" s="17">
-        <v>122.62</v>
-      </c>
-      <c r="T10" s="17">
-        <v>122.3</v>
-      </c>
-      <c r="U10" s="17">
-        <v>122.19</v>
-      </c>
-      <c r="V10" s="17">
-        <v>120.78</v>
-      </c>
-      <c r="W10" s="17">
-        <v>121.37</v>
-      </c>
-      <c r="X10" s="17">
-        <v>120.4</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>122.03</v>
-      </c>
-      <c r="Z10" s="17">
-        <v>121.39</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>120.35</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>119.4</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>120.09</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>117.82</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>115.49</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>112.03</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>109.92</v>
-      </c>
-      <c r="AH10" s="17">
-        <v>106.79</v>
-      </c>
-      <c r="AI10" s="17">
-        <v>105.29</v>
-      </c>
-      <c r="AJ10" s="17">
-        <v>102.25</v>
-      </c>
-      <c r="AK10" s="17">
-        <v>100.46</v>
-      </c>
-      <c r="AL10" s="17">
-        <v>98.91</v>
-      </c>
-      <c r="AM10" s="17">
-        <v>97.47</v>
-      </c>
-      <c r="AN10" s="17">
-        <v>95.79</v>
-      </c>
-      <c r="AO10" s="17">
-        <v>94.45</v>
-      </c>
-      <c r="AP10" s="17">
-        <v>93.48</v>
-      </c>
-      <c r="AQ10" s="17">
-        <v>92.54</v>
-      </c>
-      <c r="AR10" s="17">
-        <v>91.98</v>
-      </c>
-      <c r="AS10" s="17">
-        <v>90.9</v>
-      </c>
-      <c r="AT10" s="17">
-        <v>89.75</v>
-      </c>
-      <c r="AU10" s="17">
-        <v>88.18</v>
-      </c>
-      <c r="AV10" s="17">
-        <v>86.67</v>
-      </c>
-      <c r="AW10" s="17">
-        <v>85.04</v>
-      </c>
-      <c r="AX10" s="17">
-        <v>83.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX11" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="17">
-        <v>11597.39</v>
-      </c>
-      <c r="D12" s="17">
-        <v>13669.99</v>
-      </c>
-      <c r="E12" s="17">
-        <v>11560.31</v>
-      </c>
-      <c r="F12" s="17">
-        <v>11560.31</v>
-      </c>
-      <c r="G12" s="17">
-        <v>13807.67</v>
-      </c>
-      <c r="H12" s="17">
-        <v>11902.42</v>
-      </c>
-      <c r="I12" s="17">
-        <v>8382.2999999999993</v>
-      </c>
-      <c r="J12" s="17">
-        <v>12274.73</v>
-      </c>
-      <c r="K12" s="17">
-        <v>9068.4599999999991</v>
-      </c>
-      <c r="L12" s="17">
-        <v>8919.9500000000007</v>
-      </c>
-      <c r="M12" s="17">
-        <v>6598.91</v>
-      </c>
-      <c r="N12" s="17">
-        <v>9615.0300000000007</v>
-      </c>
-      <c r="O12" s="17">
-        <v>7542.12</v>
-      </c>
-      <c r="P12" s="17">
-        <v>8474.26</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>14962.16</v>
-      </c>
-      <c r="R12" s="17">
-        <v>12782.71</v>
-      </c>
-      <c r="S12" s="17">
-        <v>11936.91</v>
-      </c>
-      <c r="T12" s="17">
-        <v>17494.080000000002</v>
-      </c>
-      <c r="U12" s="17">
-        <v>7184.92</v>
-      </c>
-      <c r="V12" s="17">
-        <v>25098.78</v>
-      </c>
-      <c r="W12" s="17">
-        <v>9513.69</v>
-      </c>
-      <c r="X12" s="17">
-        <v>9170.56</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>4734.8100000000004</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>9508.19</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>4140.82</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>15308.75</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>5943.92</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>7886.03</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>3813.13</v>
-      </c>
-      <c r="AF12" s="17">
-        <v>3225.74</v>
-      </c>
-      <c r="AG12" s="17">
-        <v>4387.09</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>8924.61</v>
-      </c>
-      <c r="AI12" s="17">
-        <v>3563.15</v>
-      </c>
-      <c r="AJ12" s="17">
-        <v>3075.18</v>
-      </c>
-      <c r="AK12" s="17">
-        <v>2901.51</v>
-      </c>
-      <c r="AL12" s="17">
-        <v>3053.34</v>
-      </c>
-      <c r="AM12" s="17">
-        <v>3352.65</v>
-      </c>
-      <c r="AN12" s="17">
-        <v>2763.25</v>
-      </c>
-      <c r="AO12" s="17">
-        <v>2665.54</v>
-      </c>
-      <c r="AP12" s="17">
-        <v>2552.71</v>
-      </c>
-      <c r="AQ12" s="17">
-        <v>2306.83</v>
-      </c>
-      <c r="AR12" s="17">
-        <v>5186.67</v>
-      </c>
-      <c r="AS12" s="17">
-        <v>2529.23</v>
-      </c>
-      <c r="AT12" s="17">
-        <v>2346.88</v>
-      </c>
-      <c r="AU12" s="17">
-        <v>2013.51</v>
-      </c>
-      <c r="AV12" s="17">
-        <v>4121.53</v>
-      </c>
-      <c r="AW12" s="17">
-        <v>4504.6400000000003</v>
-      </c>
-      <c r="AX12" s="17">
-        <v>4017.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="17">
-        <v>54032.72</v>
-      </c>
-      <c r="D13" s="17">
-        <v>53745.34</v>
-      </c>
-      <c r="E13" s="17">
-        <v>51849.97</v>
-      </c>
-      <c r="F13" s="17">
-        <v>51849.97</v>
-      </c>
-      <c r="G13" s="17">
-        <v>51475.49</v>
-      </c>
-      <c r="H13" s="17">
-        <v>51771.42</v>
-      </c>
-      <c r="I13" s="17">
-        <v>49814.82</v>
-      </c>
-      <c r="J13" s="17">
-        <v>50666.57</v>
-      </c>
-      <c r="K13" s="17">
-        <v>48507.39</v>
-      </c>
-      <c r="L13" s="17">
-        <v>52175.19</v>
-      </c>
-      <c r="M13" s="17">
-        <v>46178.57</v>
-      </c>
-      <c r="N13" s="17">
-        <v>47495.14</v>
-      </c>
-      <c r="O13" s="17">
-        <v>50030.32</v>
-      </c>
-      <c r="P13" s="17">
-        <v>46811.64</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>44650.95</v>
-      </c>
-      <c r="R13" s="17">
-        <v>43881.2</v>
-      </c>
-      <c r="S13" s="17">
-        <v>44252.9</v>
-      </c>
-      <c r="T13" s="17">
-        <v>43372.56</v>
-      </c>
-      <c r="U13" s="17">
-        <v>40839.410000000003</v>
-      </c>
-      <c r="V13" s="17">
-        <v>40974.21</v>
-      </c>
-      <c r="W13" s="17">
-        <v>39207.32</v>
-      </c>
-      <c r="X13" s="17">
-        <v>42249.62</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>36094.67</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>38521.129999999997</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>42871.26</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>39584.81</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>37494.93</v>
-      </c>
-      <c r="AD13" s="17">
-        <v>36825.120000000003</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>36570.32</v>
-      </c>
-      <c r="AF13" s="17">
-        <v>34484.03</v>
-      </c>
-      <c r="AG13" s="17">
-        <v>32297.68</v>
-      </c>
-      <c r="AH13" s="17">
-        <v>32067.45</v>
-      </c>
-      <c r="AI13" s="17">
-        <v>29356</v>
-      </c>
-      <c r="AJ13" s="17">
-        <v>32364.69</v>
-      </c>
-      <c r="AK13" s="17">
-        <v>26169.95</v>
-      </c>
-      <c r="AL13" s="17">
-        <v>26613.599999999999</v>
-      </c>
-      <c r="AM13" s="17">
-        <v>29150.43</v>
-      </c>
-      <c r="AN13" s="17">
-        <v>27456.51</v>
-      </c>
-      <c r="AO13" s="17">
-        <v>25766.97</v>
-      </c>
-      <c r="AP13" s="17">
-        <v>24106.49</v>
-      </c>
-      <c r="AQ13" s="17">
-        <v>23271.41</v>
-      </c>
-      <c r="AR13" s="17">
-        <v>23276.31</v>
-      </c>
-      <c r="AS13" s="17">
-        <v>23250.77</v>
-      </c>
-      <c r="AT13" s="17">
-        <v>22258.080000000002</v>
-      </c>
-      <c r="AU13" s="17">
-        <v>19602.47</v>
-      </c>
-      <c r="AV13" s="17">
-        <v>20864.84</v>
-      </c>
-      <c r="AW13" s="17">
-        <v>18057.25</v>
-      </c>
-      <c r="AX13" s="17">
-        <v>19007.240000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="17">
-        <v>65630.11</v>
-      </c>
-      <c r="D14" s="17">
-        <v>67415.33</v>
-      </c>
-      <c r="E14" s="17">
-        <v>63410.28</v>
-      </c>
-      <c r="F14" s="17">
-        <v>63410.28</v>
-      </c>
-      <c r="G14" s="17">
-        <v>65283.16</v>
-      </c>
-      <c r="H14" s="17">
-        <v>63673.84</v>
-      </c>
-      <c r="I14" s="17">
-        <v>58197.120000000003</v>
-      </c>
-      <c r="J14" s="17">
-        <v>62941.3</v>
-      </c>
-      <c r="K14" s="17">
-        <v>57575.85</v>
-      </c>
-      <c r="L14" s="17">
-        <v>61095.14</v>
-      </c>
-      <c r="M14" s="17">
-        <v>52777.48</v>
-      </c>
-      <c r="N14" s="17">
-        <v>57110.17</v>
-      </c>
-      <c r="O14" s="17">
-        <v>57572.44</v>
-      </c>
-      <c r="P14" s="17">
-        <v>55285.9</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>59613.11</v>
-      </c>
-      <c r="R14" s="17">
-        <v>56663.91</v>
-      </c>
-      <c r="S14" s="17">
-        <v>56189.81</v>
-      </c>
-      <c r="T14" s="17">
-        <v>60866.64</v>
-      </c>
-      <c r="U14" s="17">
-        <v>48024.33</v>
-      </c>
-      <c r="V14" s="17">
-        <v>66072.990000000005</v>
-      </c>
-      <c r="W14" s="17">
-        <v>48721.01</v>
-      </c>
-      <c r="X14" s="17">
-        <v>51420.18</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>40829.480000000003</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>48029.32</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>47012.08</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>54893.56</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>43438.85</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>44711.15</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>40383.449999999997</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>37709.769999999997</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>36684.769999999997</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>40992.06</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>32919.15</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>35439.870000000003</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>29071.46</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>29666.94</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>32503.08</v>
-      </c>
-      <c r="AN14" s="17">
-        <v>30219.759999999998</v>
-      </c>
-      <c r="AO14" s="17">
-        <v>28432.51</v>
-      </c>
-      <c r="AP14" s="17">
-        <v>26659.200000000001</v>
-      </c>
-      <c r="AQ14" s="17">
-        <v>25578.240000000002</v>
-      </c>
-      <c r="AR14" s="17">
-        <v>28462.98</v>
-      </c>
-      <c r="AS14" s="17">
-        <v>25780</v>
-      </c>
-      <c r="AT14" s="17">
-        <v>24604.959999999999</v>
-      </c>
-      <c r="AU14" s="17">
-        <v>21615.98</v>
-      </c>
-      <c r="AV14" s="17">
-        <v>24986.37</v>
-      </c>
-      <c r="AW14" s="17">
-        <v>22561.89</v>
-      </c>
-      <c r="AX14" s="17">
-        <v>23024.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX15" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="17">
-        <v>12479.17</v>
-      </c>
-      <c r="D16" s="17">
-        <v>14556.67</v>
-      </c>
-      <c r="E16" s="17">
-        <v>7700.04</v>
-      </c>
-      <c r="F16" s="17">
-        <v>7700.04</v>
-      </c>
-      <c r="G16" s="17">
-        <v>6883.21</v>
-      </c>
-      <c r="H16" s="17">
-        <v>7188.68</v>
-      </c>
-      <c r="I16" s="17">
-        <v>7508.1</v>
-      </c>
-      <c r="J16" s="17">
-        <v>12087.01</v>
-      </c>
-      <c r="K16" s="17">
-        <v>12113.51</v>
-      </c>
-      <c r="L16" s="17">
-        <v>9186.57</v>
-      </c>
-      <c r="M16" s="17">
-        <v>7198.89</v>
-      </c>
-      <c r="N16" s="17">
-        <v>7180.79</v>
-      </c>
-      <c r="O16" s="17">
-        <v>9007.74</v>
-      </c>
-      <c r="P16" s="17">
-        <v>8122.17</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>11043.69</v>
-      </c>
-      <c r="R16" s="17">
-        <v>7371.67</v>
-      </c>
-      <c r="S16" s="17">
-        <v>7797.76</v>
-      </c>
-      <c r="T16" s="17">
-        <v>11617.97</v>
-      </c>
-      <c r="U16" s="17">
-        <v>4990.4399999999996</v>
-      </c>
-      <c r="V16" s="17">
-        <v>15059.51</v>
-      </c>
-      <c r="W16" s="17">
-        <v>5932.82</v>
-      </c>
-      <c r="X16" s="17">
-        <v>8006.51</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>3476.4</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>6194.34</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>3748.3</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>10692.98</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>3539.07</v>
-      </c>
-      <c r="AD16" s="17">
-        <v>7362.34</v>
-      </c>
-      <c r="AE16" s="17">
-        <v>3029.56</v>
-      </c>
-      <c r="AF16" s="17">
-        <v>2892.39</v>
-      </c>
-      <c r="AG16" s="17">
-        <v>4088.99</v>
-      </c>
-      <c r="AH16" s="17">
-        <v>8375.93</v>
-      </c>
-      <c r="AI16" s="17">
-        <v>3345.31</v>
-      </c>
-      <c r="AJ16" s="17">
-        <v>2849.99</v>
-      </c>
-      <c r="AK16" s="17">
-        <v>2576.85</v>
-      </c>
-      <c r="AL16" s="17">
-        <v>2663.33</v>
-      </c>
-      <c r="AM16" s="17">
-        <v>2569.9899999999998</v>
-      </c>
-      <c r="AN16" s="17">
-        <v>2239.94</v>
-      </c>
-      <c r="AO16" s="17">
-        <v>2234.08</v>
-      </c>
-      <c r="AP16" s="17">
-        <v>2266.09</v>
-      </c>
-      <c r="AQ16" s="17">
-        <v>2246.92</v>
-      </c>
-      <c r="AR16" s="17">
-        <v>4900.04</v>
-      </c>
-      <c r="AS16" s="17">
-        <v>2165.9299999999998</v>
-      </c>
-      <c r="AT16" s="17">
-        <v>2095.16</v>
-      </c>
-      <c r="AU16" s="17">
-        <v>2089.2600000000002</v>
-      </c>
-      <c r="AV16" s="17">
-        <v>2707.64</v>
-      </c>
-      <c r="AW16" s="17">
-        <v>3559.25</v>
-      </c>
-      <c r="AX16" s="17">
-        <v>4083.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="17">
-        <v>54144.29</v>
-      </c>
-      <c r="D17" s="17">
-        <v>53613.32</v>
-      </c>
-      <c r="E17" s="17">
-        <v>51609.02</v>
-      </c>
-      <c r="F17" s="17">
-        <v>51609.02</v>
-      </c>
-      <c r="G17" s="17">
-        <v>51990</v>
-      </c>
-      <c r="H17" s="17">
-        <v>51758.49</v>
-      </c>
-      <c r="I17" s="17">
-        <v>49942.75</v>
-      </c>
-      <c r="J17" s="17">
-        <v>51012.99</v>
-      </c>
-      <c r="K17" s="17">
-        <v>48526.63</v>
-      </c>
-      <c r="L17" s="17">
-        <v>52355.66</v>
-      </c>
-      <c r="M17" s="17">
-        <v>46410.53</v>
-      </c>
-      <c r="N17" s="17">
-        <v>47750.5</v>
-      </c>
-      <c r="O17" s="17">
-        <v>52101.54</v>
-      </c>
-      <c r="P17" s="17">
-        <v>48852.11</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>46057.52</v>
-      </c>
-      <c r="R17" s="17">
-        <v>45864.36</v>
-      </c>
-      <c r="S17" s="17">
-        <v>46433.57</v>
-      </c>
-      <c r="T17" s="17">
-        <v>44692.12</v>
-      </c>
-      <c r="U17" s="17">
-        <v>42553.43</v>
-      </c>
-      <c r="V17" s="17">
-        <v>42585.29</v>
-      </c>
-      <c r="W17" s="17">
-        <v>40623.06</v>
-      </c>
-      <c r="X17" s="17">
-        <v>43660.01</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>37249.75</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>39340.050000000003</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>43271.24</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>40391.360000000001</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>38015.269999999997</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>37369.18</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>37269.379999999997</v>
-      </c>
-      <c r="AF17" s="17">
-        <v>34690.81</v>
-      </c>
-      <c r="AG17" s="17">
-        <v>32739.84</v>
-      </c>
-      <c r="AH17" s="17">
-        <v>32593.54</v>
-      </c>
-      <c r="AI17" s="17">
-        <v>29791.7</v>
-      </c>
-      <c r="AJ17" s="17">
-        <v>32846.080000000002</v>
-      </c>
-      <c r="AK17" s="17">
-        <v>26465.95</v>
-      </c>
-      <c r="AL17" s="17">
-        <v>26707.9</v>
-      </c>
-      <c r="AM17" s="17">
-        <v>29107.74</v>
-      </c>
-      <c r="AN17" s="17">
-        <v>27462.33</v>
-      </c>
-      <c r="AO17" s="17">
-        <v>25673.4</v>
-      </c>
-      <c r="AP17" s="17">
-        <v>24220.32</v>
-      </c>
-      <c r="AQ17" s="17">
-        <v>23515.88</v>
-      </c>
-      <c r="AR17" s="17">
-        <v>23251.03</v>
-      </c>
-      <c r="AS17" s="17">
-        <v>23463.14</v>
-      </c>
-      <c r="AT17" s="17">
-        <v>22363.96</v>
-      </c>
-      <c r="AU17" s="17">
-        <v>20594.73</v>
-      </c>
-      <c r="AV17" s="17">
-        <v>19790.439999999999</v>
-      </c>
-      <c r="AW17" s="17">
-        <v>18128.97</v>
-      </c>
-      <c r="AX17" s="17">
-        <v>18824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="18">
-        <v>66623.460000000006</v>
-      </c>
-      <c r="D18" s="18">
-        <v>68169.990000000005</v>
-      </c>
-      <c r="E18" s="18">
-        <v>59309.06</v>
-      </c>
-      <c r="F18" s="18">
-        <v>59309.06</v>
-      </c>
-      <c r="G18" s="18">
-        <v>58873.21</v>
-      </c>
-      <c r="H18" s="18">
-        <v>58947.17</v>
-      </c>
-      <c r="I18" s="18">
-        <v>57450.85</v>
-      </c>
-      <c r="J18" s="18">
-        <v>63100</v>
-      </c>
-      <c r="K18" s="18">
-        <v>60640.14</v>
-      </c>
-      <c r="L18" s="18">
-        <v>61542.23</v>
-      </c>
-      <c r="M18" s="18">
-        <v>53609.42</v>
-      </c>
-      <c r="N18" s="18">
-        <v>54931.29</v>
-      </c>
-      <c r="O18" s="18">
-        <v>61109.279999999999</v>
-      </c>
-      <c r="P18" s="18">
-        <v>56974.28</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>57101.21</v>
-      </c>
-      <c r="R18" s="18">
-        <v>53236.03</v>
-      </c>
-      <c r="S18" s="18">
-        <v>54231.33</v>
-      </c>
-      <c r="T18" s="18">
-        <v>56310.09</v>
-      </c>
-      <c r="U18" s="18">
-        <v>47543.87</v>
-      </c>
-      <c r="V18" s="18">
-        <v>57644.800000000003</v>
-      </c>
-      <c r="W18" s="18">
-        <v>46555.88</v>
-      </c>
-      <c r="X18" s="18">
-        <v>51666.52</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>40726.15</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>45534.39</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>47019.54</v>
-      </c>
-      <c r="AB18" s="18">
-        <v>51084.34</v>
-      </c>
-      <c r="AC18" s="18">
-        <v>41554.339999999997</v>
-      </c>
-      <c r="AD18" s="18">
-        <v>44731.519999999997</v>
-      </c>
-      <c r="AE18" s="18">
-        <v>40298.94</v>
-      </c>
-      <c r="AF18" s="18">
-        <v>37583.199999999997</v>
-      </c>
-      <c r="AG18" s="18">
-        <v>36828.83</v>
-      </c>
-      <c r="AH18" s="18">
-        <v>40969.47</v>
-      </c>
-      <c r="AI18" s="18">
-        <v>33137.01</v>
-      </c>
-      <c r="AJ18" s="18">
-        <v>35696.07</v>
-      </c>
-      <c r="AK18" s="18">
-        <v>29042.799999999999</v>
-      </c>
-      <c r="AL18" s="18">
-        <v>29371.23</v>
-      </c>
-      <c r="AM18" s="18">
-        <v>31677.73</v>
-      </c>
-      <c r="AN18" s="18">
-        <v>29702.27</v>
-      </c>
-      <c r="AO18" s="18">
-        <v>27907.48</v>
-      </c>
-      <c r="AP18" s="18">
-        <v>26486.41</v>
-      </c>
-      <c r="AQ18" s="18">
-        <v>25762.799999999999</v>
-      </c>
-      <c r="AR18" s="18">
-        <v>28151.07</v>
-      </c>
-      <c r="AS18" s="18">
-        <v>25629.07</v>
-      </c>
-      <c r="AT18" s="18">
-        <v>24459.119999999999</v>
-      </c>
-      <c r="AU18" s="18">
-        <v>22683.99</v>
-      </c>
-      <c r="AV18" s="18">
-        <v>22498.080000000002</v>
-      </c>
-      <c r="AW18" s="18">
-        <v>21688.22</v>
-      </c>
-      <c r="AX18" s="18">
-        <v>22907.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="D27" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A23:AX23"/>
-    <mergeCell ref="A24:AX24"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D27" location="Index!A1" display="index" xr:uid="{D26B4D35-0FC8-4C47-9EDD-6B4EEA963122}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611CF7F-2BE6-BE4B-8331-CCA59064E309}">
-  <dimension ref="A1:AX16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35" style="3" customWidth="1"/>
-    <col min="3" max="25" width="9.83203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="9.1640625" style="3" customWidth="1"/>
-    <col min="27" max="29" width="9.83203125" style="3" customWidth="1"/>
-    <col min="30" max="50" width="9.1640625" style="3" customWidth="1"/>
-    <col min="51" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-    </row>
-    <row r="6" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C7" s="17">
         <v>1945084.36</v>
@@ -14321,10 +11598,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C8" s="18">
         <v>4306.92</v>
@@ -14525,7 +11802,7 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
@@ -14633,7 +11910,7 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
@@ -14687,7 +11964,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
@@ -14741,7 +12018,7 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="D16" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Data.xlsx
+++ b/Sources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Main/DEV/Sources/GitHub/Data_Wrangling/Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C48470-2CF2-9343-A1CC-7BD872C480CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294FB122-6F39-AD41-88EC-1704CB07FFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{F2E2C718-5AB1-4D97-B89F-4856C77CCB6B}"/>
   </bookViews>
@@ -16,9 +16,8 @@
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Vol. of Plastic card usage" sheetId="19" r:id="rId2"/>
     <sheet name="Value. of Plastic card usage" sheetId="20" r:id="rId3"/>
-    <sheet name="Payment Cards on ATM &amp; POS " sheetId="21" r:id="rId4"/>
-    <sheet name="Mobile,internet banking" sheetId="22" r:id="rId5"/>
-    <sheet name="Promptpay" sheetId="24" r:id="rId6"/>
+    <sheet name="Mobile,internet banking" sheetId="22" r:id="rId4"/>
+    <sheet name="Promptpay" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="126">
   <si>
     <t>Bank of Thailand</t>
   </si>
@@ -196,9 +195,6 @@
     <t xml:space="preserve">JUN 2021 </t>
   </si>
   <si>
-    <t xml:space="preserve">   Debit card 3/</t>
-  </si>
-  <si>
     <t>PS_PT_004 : Volume of Usage of Plastic Cards for Payment 1/</t>
   </si>
   <si>
@@ -290,36 +286,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>EFTPOS Terminal</t>
-  </si>
-  <si>
-    <t>PS_PT_008 : Use of Payment Cards via EFTPOS and ATM 1/</t>
-  </si>
-  <si>
-    <t>(Unit : Baht per card per month)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Credit card 2/</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ATM card 4/</t>
-  </si>
-  <si>
-    <t>2/ Domestic and oversea spending of Thai credit cards and domestic spending of foreign credit cards.Since 2019, include data from Special Financial Institutions.</t>
-  </si>
-  <si>
-    <t>3/ Domestic and oversea spending of Thai debit cards. Since 2015, data include domestic spending of foreign debit card.Since 2019, include data from Special Financial Institutions.</t>
-  </si>
-  <si>
-    <t>4/ Data from commercial banks. Since 2019, include data from Special Financial Institutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment Cards on ATM &amp; POS </t>
   </si>
   <si>
     <t>PS_PT_009_S2 : Use of Mobile Banking and Internet Banking 1/</t>
@@ -968,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F3281-199D-4D67-BC16-BE1497032156}">
-  <dimension ref="B3:E8"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,10 +951,10 @@
   <sheetData>
     <row r="3" spans="2:5" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>42</v>
@@ -1002,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1016,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1030,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19" x14ac:dyDescent="0.25">
@@ -1044,36 +1010,21 @@
         <v>4</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" location="'Value. of Plastic card usage'!A1" display="Value. of Plastic card usage" xr:uid="{0393B56A-ABA0-4C6D-830B-8D17E1A85A2D}"/>
     <hyperlink ref="C4" location="'Vol. of Plastic card usage'!A1" display="Vol. of Plastic card usage" xr:uid="{96478E3F-DB82-4B7E-AA09-5DAE657373FA}"/>
-    <hyperlink ref="C6" location="'Payment Cards on ATM &amp; POS '!A1" display="Payment Cards on ATM &amp; POS " xr:uid="{A8FC58F5-5A39-46AF-9A10-A4A1441FED7A}"/>
-    <hyperlink ref="C7" location="'Mobile,internet banking'!A1" display="Mobile,internet banking" xr:uid="{E6141E5E-9D4C-43DD-9D9D-B6C3210141DF}"/>
-    <hyperlink ref="C8" location="promptpay!A1" display="promptpay" xr:uid="{FCCB12CC-198F-40F2-9651-24488FFAAF28}"/>
+    <hyperlink ref="C6" location="'Mobile,internet banking'!A1" display="Mobile,internet banking" xr:uid="{E6141E5E-9D4C-43DD-9D9D-B6C3210141DF}"/>
+    <hyperlink ref="C7" location="promptpay!A1" display="promptpay" xr:uid="{FCCB12CC-198F-40F2-9651-24488FFAAF28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1159,7 +1110,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1267,7 +1218,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1381,61 +1332,61 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>26</v>
@@ -1462,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG6" s="5" t="s">
         <v>50</v>
@@ -1498,31 +1449,31 @@
         <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -1530,7 +1481,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="8">
         <v>10824</v>
@@ -1682,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8">
         <v>10331</v>
@@ -1834,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9">
         <v>493</v>
@@ -1986,7 +1937,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8">
         <v>123868</v>
@@ -2138,7 +2089,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8">
         <v>90206</v>
@@ -2290,7 +2241,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="8">
         <v>15817</v>
@@ -2442,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8">
         <v>17845</v>
@@ -2594,7 +2545,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8">
         <v>95882</v>
@@ -2746,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="8">
         <v>57771</v>
@@ -2898,7 +2849,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="8">
         <v>38111</v>
@@ -3413,7 +3364,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
@@ -3467,7 +3418,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
@@ -3521,7 +3472,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -3575,7 +3526,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
@@ -3629,7 +3580,7 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -3683,7 +3634,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -3789,7 +3740,7 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +3837,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3994,7 +3945,7 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4048,7 +3999,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4108,61 +4059,61 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>26</v>
@@ -4189,7 +4140,7 @@
         <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>17</v>
@@ -4225,31 +4176,31 @@
         <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -4257,7 +4208,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="9">
         <v>51</v>
@@ -4409,7 +4360,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="9">
         <v>44</v>
@@ -4561,7 +4512,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9">
         <v>7</v>
@@ -4713,7 +4664,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9">
         <v>502</v>
@@ -4865,7 +4816,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="9">
         <v>348</v>
@@ -5017,7 +4968,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="9">
         <v>18</v>
@@ -5169,7 +5120,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9">
         <v>136</v>
@@ -5321,7 +5272,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9">
         <v>275</v>
@@ -5473,7 +5424,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="9">
         <v>176</v>
@@ -5625,7 +5576,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="9">
         <v>99</v>
@@ -6140,7 +6091,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
@@ -6194,7 +6145,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
@@ -6248,7 +6199,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -6302,7 +6253,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
@@ -6356,7 +6307,7 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -6410,7 +6361,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -6516,7 +6467,7 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6536,25 +6487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901FDEB2-9E62-AB4C-8594-CD3936C6C3FA}">
-  <dimension ref="A1:AX23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0737A81-EC88-C54B-A312-8D3A35E5C135}">
+  <dimension ref="A1:AX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="3" customWidth="1"/>
-    <col min="5" max="29" width="9.1640625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="9.5" style="3" customWidth="1"/>
-    <col min="32" max="50" width="9.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="3" customWidth="1"/>
+    <col min="3" max="11" width="9.5" style="3" customWidth="1"/>
+    <col min="12" max="47" width="9.1640625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="9.33203125" style="3" customWidth="1"/>
+    <col min="49" max="50" width="9.1640625" style="3" customWidth="1"/>
     <col min="51" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -6614,7 +6564,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6668,1864 +6618,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-    </row>
-    <row r="6" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6984</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6067</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5997</v>
-      </c>
-      <c r="F7" s="8">
-        <v>5601</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5911</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6034</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5876</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5907</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5849</v>
-      </c>
-      <c r="L7" s="8">
-        <v>6332</v>
-      </c>
-      <c r="M7" s="8">
-        <v>5800</v>
-      </c>
-      <c r="N7" s="8">
-        <v>6306</v>
-      </c>
-      <c r="O7" s="8">
-        <v>6955</v>
-      </c>
-      <c r="P7" s="8">
-        <v>6205</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>6102</v>
-      </c>
-      <c r="R7" s="8">
-        <v>5711</v>
-      </c>
-      <c r="S7" s="8">
-        <v>5887</v>
-      </c>
-      <c r="T7" s="8">
-        <v>5719</v>
-      </c>
-      <c r="U7" s="8">
-        <v>5701</v>
-      </c>
-      <c r="V7" s="8">
-        <v>5670</v>
-      </c>
-      <c r="W7" s="8">
-        <v>5236</v>
-      </c>
-      <c r="X7" s="8">
-        <v>5434</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>4757</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>5134</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>6141</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>5140</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>4633</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>4230</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>3465</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>3630</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>4201</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>3883</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>4087</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>4960</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>4102</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>4244</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>5774</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>4898</v>
-      </c>
-      <c r="AO7" s="8">
-        <v>4556</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>4471</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>4702</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>4628</v>
-      </c>
-      <c r="AS7" s="8">
-        <v>4536</v>
-      </c>
-      <c r="AT7" s="8">
-        <v>3567</v>
-      </c>
-      <c r="AU7" s="8">
-        <v>2803</v>
-      </c>
-      <c r="AV7" s="8">
-        <v>4775</v>
-      </c>
-      <c r="AW7" s="8">
-        <v>5403</v>
-      </c>
-      <c r="AX7" s="8">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8">
-        <v>6661</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5790</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5736</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5356</v>
-      </c>
-      <c r="G8" s="8">
-        <v>5637</v>
-      </c>
-      <c r="H8" s="8">
-        <v>5760</v>
-      </c>
-      <c r="I8" s="8">
-        <v>5630</v>
-      </c>
-      <c r="J8" s="8">
-        <v>5663</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5597</v>
-      </c>
-      <c r="L8" s="8">
-        <v>6057</v>
-      </c>
-      <c r="M8" s="8">
-        <v>5547</v>
-      </c>
-      <c r="N8" s="8">
-        <v>6016</v>
-      </c>
-      <c r="O8" s="8">
-        <v>6653</v>
-      </c>
-      <c r="P8" s="8">
-        <v>5937</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>5841</v>
-      </c>
-      <c r="R8" s="8">
-        <v>5460</v>
-      </c>
-      <c r="S8" s="8">
-        <v>5626</v>
-      </c>
-      <c r="T8" s="8">
-        <v>5449</v>
-      </c>
-      <c r="U8" s="8">
-        <v>5445</v>
-      </c>
-      <c r="V8" s="8">
-        <v>5421</v>
-      </c>
-      <c r="W8" s="8">
-        <v>5002</v>
-      </c>
-      <c r="X8" s="8">
-        <v>5186</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>4541</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>4891</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>5878</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>4910</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>4403</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>4002</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>3266</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>3421</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>3986</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>3667</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>3874</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>4726</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>3899</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>4028</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>5530</v>
-      </c>
-      <c r="AN8" s="8">
-        <v>4674</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>4338</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>4253</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>4469</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>4399</v>
-      </c>
-      <c r="AS8" s="8">
-        <v>4326</v>
-      </c>
-      <c r="AT8" s="8">
-        <v>3383</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>2663</v>
-      </c>
-      <c r="AV8" s="8">
-        <v>4528</v>
-      </c>
-      <c r="AW8" s="8">
-        <v>5126</v>
-      </c>
-      <c r="AX8" s="8">
-        <v>5945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="9">
-        <v>323</v>
-      </c>
-      <c r="D9" s="9">
-        <v>276</v>
-      </c>
-      <c r="E9" s="9">
-        <v>262</v>
-      </c>
-      <c r="F9" s="9">
-        <v>244</v>
-      </c>
-      <c r="G9" s="9">
-        <v>274</v>
-      </c>
-      <c r="H9" s="9">
-        <v>274</v>
-      </c>
-      <c r="I9" s="9">
-        <v>247</v>
-      </c>
-      <c r="J9" s="9">
-        <v>245</v>
-      </c>
-      <c r="K9" s="9">
-        <v>252</v>
-      </c>
-      <c r="L9" s="9">
-        <v>274</v>
-      </c>
-      <c r="M9" s="9">
-        <v>253</v>
-      </c>
-      <c r="N9" s="9">
-        <v>289</v>
-      </c>
-      <c r="O9" s="9">
-        <v>301</v>
-      </c>
-      <c r="P9" s="9">
-        <v>268</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>261</v>
-      </c>
-      <c r="R9" s="9">
-        <v>251</v>
-      </c>
-      <c r="S9" s="9">
-        <v>261</v>
-      </c>
-      <c r="T9" s="9">
-        <v>270</v>
-      </c>
-      <c r="U9" s="9">
-        <v>256</v>
-      </c>
-      <c r="V9" s="9">
-        <v>249</v>
-      </c>
-      <c r="W9" s="9">
-        <v>234</v>
-      </c>
-      <c r="X9" s="9">
-        <v>249</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>216</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>243</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>263</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>230</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>230</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>228</v>
-      </c>
-      <c r="AE9" s="9">
-        <v>200</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>208</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>215</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>216</v>
-      </c>
-      <c r="AI9" s="9">
-        <v>213</v>
-      </c>
-      <c r="AJ9" s="9">
-        <v>234</v>
-      </c>
-      <c r="AK9" s="9">
-        <v>203</v>
-      </c>
-      <c r="AL9" s="9">
-        <v>215</v>
-      </c>
-      <c r="AM9" s="9">
-        <v>244</v>
-      </c>
-      <c r="AN9" s="9">
-        <v>224</v>
-      </c>
-      <c r="AO9" s="9">
-        <v>219</v>
-      </c>
-      <c r="AP9" s="9">
-        <v>218</v>
-      </c>
-      <c r="AQ9" s="9">
-        <v>234</v>
-      </c>
-      <c r="AR9" s="9">
-        <v>228</v>
-      </c>
-      <c r="AS9" s="9">
-        <v>210</v>
-      </c>
-      <c r="AT9" s="9">
-        <v>184</v>
-      </c>
-      <c r="AU9" s="9">
-        <v>141</v>
-      </c>
-      <c r="AV9" s="9">
-        <v>248</v>
-      </c>
-      <c r="AW9" s="9">
-        <v>278</v>
-      </c>
-      <c r="AX9" s="9">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="8">
-        <v>10631</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8051</v>
-      </c>
-      <c r="E10" s="8">
-        <v>7942</v>
-      </c>
-      <c r="F10" s="8">
-        <v>7882</v>
-      </c>
-      <c r="G10" s="8">
-        <v>8038</v>
-      </c>
-      <c r="H10" s="8">
-        <v>8307</v>
-      </c>
-      <c r="I10" s="8">
-        <v>8379</v>
-      </c>
-      <c r="J10" s="8">
-        <v>8474</v>
-      </c>
-      <c r="K10" s="8">
-        <v>8509</v>
-      </c>
-      <c r="L10" s="8">
-        <v>9494</v>
-      </c>
-      <c r="M10" s="8">
-        <v>8677</v>
-      </c>
-      <c r="N10" s="8">
-        <v>9265</v>
-      </c>
-      <c r="O10" s="8">
-        <v>10818</v>
-      </c>
-      <c r="P10" s="8">
-        <v>9303</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>8602</v>
-      </c>
-      <c r="R10" s="8">
-        <v>8298</v>
-      </c>
-      <c r="S10" s="8">
-        <v>8403</v>
-      </c>
-      <c r="T10" s="8">
-        <v>8613</v>
-      </c>
-      <c r="U10" s="8">
-        <v>8930</v>
-      </c>
-      <c r="V10" s="8">
-        <v>9172</v>
-      </c>
-      <c r="W10" s="8">
-        <v>9041</v>
-      </c>
-      <c r="X10" s="8">
-        <v>9787</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>8671</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>9943</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>13300</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>8668</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>8945</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>8632</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>8313</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>8545</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>9274</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>9603</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>9631</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>11627</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>10467</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>10444</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>10973</v>
-      </c>
-      <c r="AN10" s="8">
-        <v>10311</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>10296</v>
-      </c>
-      <c r="AP10" s="8">
-        <v>10194</v>
-      </c>
-      <c r="AQ10" s="8">
-        <v>10502</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>12209</v>
-      </c>
-      <c r="AS10" s="8">
-        <v>12247</v>
-      </c>
-      <c r="AT10" s="8">
-        <v>11547</v>
-      </c>
-      <c r="AU10" s="8">
-        <v>8961</v>
-      </c>
-      <c r="AV10" s="8">
-        <v>11781</v>
-      </c>
-      <c r="AW10" s="8">
-        <v>11700</v>
-      </c>
-      <c r="AX10" s="8">
-        <v>12555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4513</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2828</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2654</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2694</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2687</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2786</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2961</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2987</v>
-      </c>
-      <c r="K11" s="8">
-        <v>2896</v>
-      </c>
-      <c r="L11" s="8">
-        <v>3429</v>
-      </c>
-      <c r="M11" s="8">
-        <v>3076</v>
-      </c>
-      <c r="N11" s="8">
-        <v>3229</v>
-      </c>
-      <c r="O11" s="8">
-        <v>4196</v>
-      </c>
-      <c r="P11" s="8">
-        <v>3641</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>2775</v>
-      </c>
-      <c r="R11" s="8">
-        <v>2685</v>
-      </c>
-      <c r="S11" s="8">
-        <v>2741</v>
-      </c>
-      <c r="T11" s="8">
-        <v>2644</v>
-      </c>
-      <c r="U11" s="8">
-        <v>2947</v>
-      </c>
-      <c r="V11" s="8">
-        <v>3050</v>
-      </c>
-      <c r="W11" s="8">
-        <v>2997</v>
-      </c>
-      <c r="X11" s="8">
-        <v>3502</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>3072</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>3721</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>6320</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>2805</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>2674</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>2679</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>2548</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>2569</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>2800</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>2871</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>2943</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>3891</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>3392</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>3529</v>
-      </c>
-      <c r="AM11" s="8">
-        <v>2750</v>
-      </c>
-      <c r="AN11" s="8">
-        <v>2943</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>2718</v>
-      </c>
-      <c r="AP11" s="8">
-        <v>2822</v>
-      </c>
-      <c r="AQ11" s="8">
-        <v>2985</v>
-      </c>
-      <c r="AR11" s="8">
-        <v>4424</v>
-      </c>
-      <c r="AS11" s="8">
-        <v>4538</v>
-      </c>
-      <c r="AT11" s="8">
-        <v>4141</v>
-      </c>
-      <c r="AU11" s="8">
-        <v>2577</v>
-      </c>
-      <c r="AV11" s="8">
-        <v>3369</v>
-      </c>
-      <c r="AW11" s="8">
-        <v>3058</v>
-      </c>
-      <c r="AX11" s="8">
-        <v>3814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="13">
-        <v>6118</v>
-      </c>
-      <c r="D12" s="13">
-        <v>5223</v>
-      </c>
-      <c r="E12" s="13">
-        <v>5288</v>
-      </c>
-      <c r="F12" s="13">
-        <v>5188</v>
-      </c>
-      <c r="G12" s="13">
-        <v>5351</v>
-      </c>
-      <c r="H12" s="13">
-        <v>5520</v>
-      </c>
-      <c r="I12" s="13">
-        <v>5418</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5487</v>
-      </c>
-      <c r="K12" s="13">
-        <v>5613</v>
-      </c>
-      <c r="L12" s="13">
-        <v>6065</v>
-      </c>
-      <c r="M12" s="13">
-        <v>5601</v>
-      </c>
-      <c r="N12" s="13">
-        <v>6036</v>
-      </c>
-      <c r="O12" s="13">
-        <v>6622</v>
-      </c>
-      <c r="P12" s="13">
-        <v>5662</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>5827</v>
-      </c>
-      <c r="R12" s="13">
-        <v>5614</v>
-      </c>
-      <c r="S12" s="13">
-        <v>5661</v>
-      </c>
-      <c r="T12" s="13">
-        <v>5969</v>
-      </c>
-      <c r="U12" s="13">
-        <v>5983</v>
-      </c>
-      <c r="V12" s="13">
-        <v>6122</v>
-      </c>
-      <c r="W12" s="13">
-        <v>6045</v>
-      </c>
-      <c r="X12" s="13">
-        <v>6285</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>5599</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>6222</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>6979</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>5863</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>6270</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>5953</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>5766</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>5976</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>6475</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>6732</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>6688</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>7736</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>7076</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>6915</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>8223</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>7369</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>7579</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>7372</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>7517</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>7785</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>7710</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>7406</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>6383</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>8413</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>8643</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>8741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
-      <c r="AL19" s="28"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="C23" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A17:AX17"/>
-    <mergeCell ref="A18:AX18"/>
-    <mergeCell ref="A19:AX19"/>
-    <mergeCell ref="A20:AX20"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C23" location="Index!A1" display="index" xr:uid="{D7C05548-B592-E549-B9E2-E7C402E1E8B1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0737A81-EC88-C54B-A312-8D3A35E5C135}">
-  <dimension ref="A1:AX27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="3" customWidth="1"/>
-    <col min="3" max="11" width="9.5" style="3" customWidth="1"/>
-    <col min="12" max="47" width="9.1640625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="9.33203125" style="3" customWidth="1"/>
-    <col min="49" max="50" width="9.1640625" style="3" customWidth="1"/>
-    <col min="51" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8633,7 +6726,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8693,61 +6786,61 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>26</v>
@@ -8774,7 +6867,7 @@
         <v>19</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AE6" s="5" t="s">
         <v>17</v>
@@ -8810,7 +6903,7 @@
         <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ6" s="5" t="s">
         <v>12</v>
@@ -8842,7 +6935,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>4</v>
@@ -8994,7 +7087,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8">
         <v>28816836</v>
@@ -9146,7 +7239,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C9" s="8">
         <v>55325</v>
@@ -9298,7 +7391,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8">
         <v>3015</v>
@@ -9450,7 +7543,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>4</v>
@@ -9602,7 +7695,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8">
         <v>107240928</v>
@@ -9754,7 +7847,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8">
         <v>2851391</v>
@@ -9906,7 +7999,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C14" s="8">
         <v>2782327</v>
@@ -10058,7 +8151,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8">
         <v>69064</v>
@@ -10210,7 +8303,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C16" s="8">
         <v>6321</v>
@@ -10362,7 +8455,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C17" s="8">
         <v>6161</v>
@@ -10514,7 +8607,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C18" s="16">
         <v>160</v>
@@ -10877,7 +8970,7 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
@@ -10931,7 +9024,7 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -10985,7 +9078,7 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -11000,7 +9093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611CF7F-2BE6-BE4B-8331-CCA59064E309}">
   <dimension ref="A1:AX16"/>
   <sheetViews>
@@ -11078,7 +9171,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11132,7 +9225,7 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11300,61 +9393,61 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>26</v>
@@ -11417,31 +9510,31 @@
         <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AS6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -11449,7 +9542,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C7" s="17">
         <v>1945084.36</v>
@@ -11601,7 +9694,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C8" s="18">
         <v>4306.92</v>
@@ -11964,7 +10057,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
@@ -12018,7 +10111,7 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="D16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
